--- a/DRBFM/DRBFM.xlsx
+++ b/DRBFM/DRBFM.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c812362b9a4b073c/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn9u3\work\DRBFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="519" documentId="8_{9AA20054-8B74-4220-A960-0E03AE95A85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49566FAD-D751-43CA-B380-7495F88A5BD9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ABEF59-BEAD-4BF6-BE50-E04BA2EEAD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BA448D4-625C-40E1-A5E5-919919D12878}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8BA448D4-625C-40E1-A5E5-919919D12878}"/>
   </bookViews>
   <sheets>
     <sheet name="認識仕様書" sheetId="1" r:id="rId1"/>
     <sheet name="要求仕様書" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="204">
   <si>
     <t>１．前方AEBとの変化点</t>
     <rPh sb="2" eb="4">
@@ -1567,6 +1566,473 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次No.</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載有無</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連DTS</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCM-ECU　システム要求仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCM-ECU
+システム要求仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPAEBカメラ
+制御仕様書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用車種</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車種決まってない</t>
+    <rPh sb="0" eb="2">
+      <t>シャシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織り込み機能</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕向け国一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AEB機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム構成</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載なしの
+理由考察</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他機能</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その多機能は単眼カメラECUの要求仕様書に記載のため</t>
+    <rPh sb="2" eb="5">
+      <t>タキノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンガン</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>ヨウキュウシヨウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能安全</t>
+    <rPh sb="0" eb="4">
+      <t>キノウアンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コネクタ・
+端子配列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力信号</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コネクタ品番</t>
+    <rPh sb="4" eb="6">
+      <t>ヒンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後方カメラのコネクタの品番未定</t>
+    <rPh sb="0" eb="2">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外形寸法・質量</t>
+    <rPh sb="0" eb="2">
+      <t>ガイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スンポウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後方カメラはフード無し</t>
+    <rPh sb="0" eb="2">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部インターフェースの
+入出力回路</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前方：他のECUとの同期無し
+後方：周辺監視カメラの役割も兼任する　
+　　　為、HCUと同期の必要あり</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>識別記号</t>
+    <rPh sb="0" eb="4">
+      <t>シキベツキゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション要求仕様</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼性試験</t>
+    <rPh sb="0" eb="5">
+      <t>シンライセイシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提条件</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認項目</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当試験項目</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼性試験</t>
+    <rPh sb="0" eb="3">
+      <t>シンライセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能低下</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後方は日本向けのみのため？</t>
+    <rPh sb="0" eb="2">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニホンム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後方には法規試験前の物標認識状態の良好性の事前確認機能無しの為</t>
+    <rPh sb="0" eb="2">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>リョウコウセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後方には自動キャリブレーション機能がない</t>
+    <rPh sb="0" eb="2">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後方には自動FOE学習機能がない</t>
+    <rPh sb="0" eb="2">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像保存機能</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像記憶処理方法</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリブレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリブレーション概要</t>
+    <rPh sb="9" eb="11">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリブレーション仕様</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工場インラインキャリブレーション</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディーラーキャリブレーション詳細</t>
+    <rPh sb="14" eb="16">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1615,7 +2081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1899,13 +2365,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1969,6 +2513,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1990,21 +2546,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,14 +2558,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2041,10 +2663,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2346,9 +2964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EF6ED4-0D16-4884-928A-CB5ED2670BE1}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2413,21 +3031,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
@@ -2442,7 +3060,7 @@
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
@@ -2470,10 +3088,10 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="23">
+      <c r="B14" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2">
@@ -2489,8 +3107,8 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="24"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2909,10 +3527,10 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="25">
+      <c r="B43" s="29">
         <v>3.5</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="2">
@@ -2926,8 +3544,8 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="24"/>
-      <c r="C44" s="22"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="2" t="s">
         <v>89</v>
       </c>
@@ -3321,14 +3939,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3340,62 +3958,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A32B83-9249-4E84-BFD0-FE52857E87B3}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="48.875" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="48.875" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="10" max="10" width="24.125" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3403,1251 +4025,2081 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="28" t="s">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="K11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="62">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="65">
+        <v>1.3</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="65">
+        <v>1.4</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="5" t="s">
+      <c r="G20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="43"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="43"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="43"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="43"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="43"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="43"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="43"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="43"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B34" s="43"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="43"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B36" s="43"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="43"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="G39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="2">
+        <v>4</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B40" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="G40" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" s="35"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B44" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B47" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="G47" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B49" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B50" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B51" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B52" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B53" s="39"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B54" s="39"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B55" s="39"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B56" s="39"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B57" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="2">
+        <v>4</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B62" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B63" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="53"/>
+      <c r="F63" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="24"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="I63" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B64" s="37"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B65" s="37"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B66" s="37"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B67" s="35"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" s="17"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" s="17"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="17"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B72" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="53"/>
+      <c r="F72" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G72" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B74" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="53"/>
+      <c r="F74" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B76" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="53"/>
+      <c r="F76" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B80" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" s="18"/>
+      <c r="F80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B83" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" s="17"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" s="17"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86" s="17"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B87" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87" s="17"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B88" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="53"/>
+      <c r="F88" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F91" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H91" s="17"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B92" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E92" s="53"/>
+      <c r="F92" s="2">
+        <v>5</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H92" s="2">
         <v>9</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="9">
-        <v>2</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2">
+      <c r="I92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="G93" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="25">
-        <v>2.1</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="H93" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="38">
         <v>5.2</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="24"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="9">
-        <v>2.11</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="9">
-        <v>2.13</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="9">
-        <v>3</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="9">
-        <v>3.1</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B46" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" s="24"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="9">
-        <v>3.7</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B50" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="15"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B52" s="15"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B53" s="15"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B54" s="15"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B55" s="15"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B56" s="15"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B57" s="15"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B58" s="15"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B59" s="9">
-        <v>4</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B62" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B63" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B64" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B65" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B66" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B67" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B68" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B69" s="33">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B70" s="34"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B71" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B72" s="34"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B73" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B75" s="38"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B76" s="34"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B77" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B78" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B79" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B80" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B81" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B82" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B83" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B84" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B85" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B86" s="38"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B87" s="34"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B88" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B89" s="11">
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B90" s="11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B91" s="11">
-        <v>5.2</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="G94" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="H94" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="45">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H98" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:H11"/>
+  <mergeCells count="85">
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B25:B37"/>
+    <mergeCell ref="C25:C37"/>
+    <mergeCell ref="D25:D37"/>
+    <mergeCell ref="E25:E37"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B33" numberStoredAsText="1"/>
+    <ignoredError sqref="F33" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DRBFM/DRBFM.xlsx
+++ b/DRBFM/DRBFM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn9u3\work\DRBFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ABEF59-BEAD-4BF6-BE50-E04BA2EEAD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A56008-BFDE-4419-8983-C3DE4B560414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8BA448D4-625C-40E1-A5E5-919919D12878}"/>
   </bookViews>
@@ -2081,7 +2081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2443,13 +2443,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2516,6 +2533,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,97 +2575,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2624,28 +2641,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3031,21 +3036,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
@@ -3060,7 +3065,7 @@
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
@@ -3088,10 +3093,10 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="27">
+      <c r="B14" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2">
@@ -3108,7 +3113,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="28"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -3527,10 +3532,10 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="29">
+      <c r="B43" s="27">
         <v>3.5</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="2">
@@ -3545,7 +3550,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="28"/>
-      <c r="C44" s="26"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="2" t="s">
         <v>89</v>
       </c>
@@ -3961,8 +3966,8 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="12" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4031,41 +4036,41 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="30" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="5" t="s">
         <v>158</v>
       </c>
@@ -4078,7 +4083,7 @@
       <c r="I12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="31"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="5" t="s">
         <v>3</v>
       </c>
@@ -4096,8 +4101,8 @@
       <c r="D13" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="62">
+      <c r="E13" s="61"/>
+      <c r="F13" s="25">
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -4116,17 +4121,17 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="63">
+      <c r="C14" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="54">
         <v>1.1000000000000001</v>
       </c>
       <c r="G14" s="56" t="s">
@@ -4145,11 +4150,11 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="33"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="57"/>
       <c r="H15" s="2">
         <v>2.2999999999999998</v>
@@ -4176,7 +4181,7 @@
       <c r="E16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="54">
         <v>1.2</v>
       </c>
       <c r="G16" s="56" t="s">
@@ -4205,7 +4210,7 @@
         <v>160</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="64"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="57"/>
       <c r="H17" s="2">
         <v>5.0999999999999996</v>
@@ -4230,7 +4235,7 @@
         <v>160</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="65">
+      <c r="F18" s="26">
         <v>1.3</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -4261,7 +4266,7 @@
       <c r="E19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="26">
         <v>1.4</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -4276,7 +4281,7 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="22" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -4305,20 +4310,20 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="32">
+      <c r="C21" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="40">
         <v>2.1</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="59" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="2">
@@ -4334,12 +4339,12 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="59"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="2" t="s">
         <v>128</v>
       </c>
@@ -4353,16 +4358,16 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="38" t="s">
+      <c r="D23" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="50" t="s">
         <v>104</v>
       </c>
       <c r="F23" s="17"/>
@@ -4380,10 +4385,10 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="17"/>
       <c r="G24" s="19"/>
       <c r="H24" s="2">
@@ -4399,16 +4404,16 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="38" t="s">
+      <c r="C25" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="52" t="s">
         <v>174</v>
       </c>
       <c r="F25" s="2">
@@ -4426,10 +4431,10 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="43"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -4445,10 +4450,10 @@
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="43"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="2">
         <v>2.4</v>
       </c>
@@ -4464,10 +4469,10 @@
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="43"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="2">
         <v>2.5</v>
       </c>
@@ -4483,10 +4488,10 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="43"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="2">
         <v>2.6</v>
       </c>
@@ -4502,10 +4507,10 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="43"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="2">
         <v>2.7</v>
       </c>
@@ -4521,10 +4526,10 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="43"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="52"/>
       <c r="F31" s="2">
         <v>2.8</v>
       </c>
@@ -4540,10 +4545,10 @@
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="43"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="2">
         <v>2.9</v>
       </c>
@@ -4559,11 +4564,11 @@
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="43"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="65" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="26" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -4578,10 +4583,10 @@
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="43"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="2">
         <v>2.11</v>
       </c>
@@ -4597,10 +4602,10 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="43"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="2">
         <v>2.12</v>
       </c>
@@ -4616,10 +4621,10 @@
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="43"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="2" t="s">
         <v>80</v>
       </c>
@@ -4635,10 +4640,10 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="43"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="2" t="s">
         <v>81</v>
       </c>
@@ -4672,8 +4677,8 @@
       <c r="G38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="3" t="s">
         <v>77</v>
       </c>
@@ -4714,17 +4719,17 @@
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="32">
+      <c r="C40" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="40">
         <v>3.1</v>
       </c>
       <c r="G40" s="56" t="s">
@@ -4736,18 +4741,18 @@
       <c r="I40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="37" t="s">
         <v>77</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="33"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="57"/>
       <c r="H41" s="2">
         <v>4.2</v>
@@ -4755,7 +4760,7 @@
       <c r="I41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J41" s="35"/>
+      <c r="J41" s="39"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
@@ -4818,7 +4823,7 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="22" t="s">
         <v>176</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -4889,7 +4894,7 @@
       <c r="D46" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E46" s="44" t="s">
+      <c r="E46" s="22" t="s">
         <v>179</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -4905,17 +4910,17 @@
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="32">
+      <c r="C47" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="51"/>
+      <c r="F47" s="40">
         <v>3.5</v>
       </c>
       <c r="G47" s="56" t="s">
@@ -4934,11 +4939,11 @@
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="33"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="57"/>
       <c r="H48" s="2" t="s">
         <v>89</v>
@@ -4953,7 +4958,7 @@
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4962,7 +4967,7 @@
       <c r="D49" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="2">
         <v>3.6</v>
       </c>
@@ -4980,7 +4985,7 @@
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4989,7 +4994,7 @@
       <c r="D50" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F50" s="2">
@@ -5005,7 +5010,7 @@
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -5032,16 +5037,16 @@
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="38" t="s">
+      <c r="D52" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="50" t="s">
         <v>104</v>
       </c>
       <c r="F52" s="17"/>
@@ -5057,10 +5062,10 @@
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="39"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="17"/>
       <c r="G53" s="19"/>
       <c r="H53" s="2" t="s">
@@ -5074,10 +5079,10 @@
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B54" s="39"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="17"/>
       <c r="G54" s="19"/>
       <c r="H54" s="2" t="s">
@@ -5091,10 +5096,10 @@
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B55" s="39"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="17"/>
       <c r="G55" s="19"/>
       <c r="H55" s="2" t="s">
@@ -5108,10 +5113,10 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B56" s="39"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
       <c r="F56" s="17"/>
       <c r="G56" s="19"/>
       <c r="H56" s="2" t="s">
@@ -5125,16 +5130,16 @@
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="E57" s="50" t="s">
+      <c r="D57" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="47" t="s">
         <v>183</v>
       </c>
       <c r="F57" s="17"/>
@@ -5150,10 +5155,10 @@
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="51"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="17"/>
       <c r="G58" s="19"/>
       <c r="H58" s="2" t="s">
@@ -5167,10 +5172,10 @@
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="52"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="49"/>
       <c r="F59" s="17"/>
       <c r="G59" s="19"/>
       <c r="H59" s="2" t="s">
@@ -5234,7 +5239,7 @@
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -5259,16 +5264,16 @@
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="53"/>
+      <c r="C63" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="43"/>
       <c r="F63" s="2">
         <v>4.2</v>
       </c>
@@ -5286,10 +5291,10 @@
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B64" s="37"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="54"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="44"/>
       <c r="F64" s="2" t="s">
         <v>84</v>
       </c>
@@ -5307,11 +5312,11 @@
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="37"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="32" t="s">
+      <c r="B65" s="38"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="40" t="s">
         <v>85</v>
       </c>
       <c r="G65" s="56" t="s">
@@ -5328,12 +5333,12 @@
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="37"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="60"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="2">
         <v>6.3</v>
       </c>
@@ -5345,11 +5350,11 @@
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="35"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="33"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="42"/>
       <c r="G67" s="57"/>
       <c r="H67" s="2">
         <v>6.4</v>
@@ -5462,17 +5467,17 @@
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="32" t="s">
+      <c r="C72" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="E72" s="53"/>
-      <c r="F72" s="32">
+      <c r="E72" s="43"/>
+      <c r="F72" s="40">
         <v>4.4000000000000004</v>
       </c>
       <c r="G72" s="56" t="s">
@@ -5489,11 +5494,11 @@
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="33"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="42"/>
       <c r="G73" s="57"/>
       <c r="H73" s="2" t="s">
         <v>133</v>
@@ -5506,17 +5511,17 @@
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="C74" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="32" t="s">
+      <c r="C74" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="E74" s="53"/>
-      <c r="F74" s="32" t="s">
+      <c r="E74" s="43"/>
+      <c r="F74" s="40" t="s">
         <v>89</v>
       </c>
       <c r="G74" s="56" t="s">
@@ -5533,11 +5538,11 @@
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="33"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="42"/>
       <c r="G75" s="57"/>
       <c r="H75" s="20" t="s">
         <v>140</v>
@@ -5550,17 +5555,17 @@
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" s="32" t="s">
+      <c r="C76" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="E76" s="53"/>
-      <c r="F76" s="32" t="s">
+      <c r="E76" s="43"/>
+      <c r="F76" s="40" t="s">
         <v>90</v>
       </c>
       <c r="G76" s="56" t="s">
@@ -5577,12 +5582,12 @@
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="60"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="58"/>
       <c r="H77" s="2" t="s">
         <v>144</v>
       </c>
@@ -5594,12 +5599,12 @@
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="60"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="2" t="s">
         <v>145</v>
       </c>
@@ -5611,11 +5616,11 @@
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="33"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="42"/>
       <c r="G79" s="57"/>
       <c r="H79" s="2" t="s">
         <v>146</v>
@@ -5834,17 +5839,17 @@
       <c r="L87" s="3"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="E88" s="53"/>
-      <c r="F88" s="32" t="s">
+      <c r="C88" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="43"/>
+      <c r="F88" s="40" t="s">
         <v>98</v>
       </c>
       <c r="G88" s="56" t="s">
@@ -5861,12 +5866,12 @@
       <c r="L88" s="3"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="60"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="2">
         <v>5.4</v>
       </c>
@@ -5878,11 +5883,11 @@
       <c r="L89" s="3"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="33"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="42"/>
       <c r="G90" s="57"/>
       <c r="H90" s="2">
         <v>5.6</v>
@@ -5904,7 +5909,7 @@
       <c r="D91" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="23" t="s">
         <v>193</v>
       </c>
       <c r="F91" s="2">
@@ -5920,16 +5925,16 @@
       <c r="L91" s="3"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D92" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="E92" s="53"/>
+      <c r="C92" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E92" s="43"/>
       <c r="F92" s="2">
         <v>5</v>
       </c>
@@ -5947,10 +5952,10 @@
       <c r="L92" s="3"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="54"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="44"/>
       <c r="F93" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -5968,14 +5973,14 @@
       <c r="L93" s="3"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="38">
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="50">
         <v>5.2</v>
       </c>
-      <c r="G94" s="61" t="s">
+      <c r="G94" s="46" t="s">
         <v>67</v>
       </c>
       <c r="H94" s="2">
@@ -5989,13 +5994,13 @@
       <c r="L94" s="3"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="45">
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="2">
         <v>9.3000000000000007</v>
       </c>
       <c r="I95" s="3" t="s">
@@ -6006,38 +6011,51 @@
       <c r="L95" s="3"/>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H98" s="41"/>
+      <c r="H98" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B25:B37"/>
+    <mergeCell ref="C25:C37"/>
+    <mergeCell ref="D25:D37"/>
+    <mergeCell ref="E25:E37"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="C76:C79"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E47:E48"/>
@@ -6048,53 +6066,40 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B25:B37"/>
-    <mergeCell ref="C25:C37"/>
-    <mergeCell ref="D25:D37"/>
-    <mergeCell ref="E25:E37"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="F94:F95"/>
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="F76:F79"/>
     <mergeCell ref="G76:G79"/>
     <mergeCell ref="F88:F90"/>
     <mergeCell ref="G88:G90"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
